--- a/WorkBot/main/backend/ordering/OrderFiles/Russo Produce/Russo Produce_Triphammer_20250323.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Russo Produce/Russo Produce_Triphammer_20250323.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,6 +724,148 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pineapple - Fresh</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mushroom - White Sliced</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Green Onion</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Scallion - Fresh</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sprouts - Alfalfa</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>67.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Tomato - Fresh 5x6 Vine Ripe</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>45.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tomato - Grape</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
